--- a/Consumer/Richemont.xlsx
+++ b/Consumer/Richemont.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28509017-9079-5548-A87D-DCA98139542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05FF296-1FC6-7E40-8BEF-0BE71D3FA607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$V$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$V$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$V$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -965,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,12 +991,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1034,6 +1008,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2384,11 +2376,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>150.75</v>
+    <v>152.55000000000001</v>
     <v>90.28</v>
-    <v>1.5079</v>
-    <v>0.4</v>
-    <v>2.66E-3</v>
+    <v>1.5125999999999999</v>
+    <v>2.75</v>
+    <v>1.8745999999999999E-2</v>
     <v>CHF</v>
     <v>Compagnie Financiere Richemont SA (Richemont) is a Switzerland-based jewelry company. The Company's segments include Jewellery Maisons and Specialist Watchmakers. The Jewellery Maisons segment includes businesses, which are engaged in the design, manufacture and distribution of jewelry products. The businesses include Cartier, Van Cleef &amp; Arpels and Giampiero Bodino. Its Specialist Watchmakers segment includes businesses whose primary activity includes the design, manufacture and distribution of precision timepieces. The businesses in the Watchmakers segment include Piaget, A. Lange &amp; Sohne, Jaeger-LeCoultre, Vacheron Constantin, Officine Panerai, IWC Schaffhausen, Baume &amp; Mercier and Roger Dubuis. The Company's other operating segments include Montblanc, Alfred Dunhill, Chloe, Purdey, Shanghai Tang, Peter Millar, investment property companies and other manufacturing entities.</v>
     <v>35853</v>
@@ -2396,24 +2388,24 @@
     <v>XSWX</v>
     <v>XSWX</v>
     <v>Chemin de la Chenaie 50, BELLEVUE, GENEVE, 1293 CH</v>
-    <v>150.75</v>
+    <v>149.44999999999999</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45037.819780092592</v>
+    <v>45057.809618055559</v>
     <v>0</v>
-    <v>147.19999999999999</v>
-    <v>78879200000</v>
+    <v>145.94999999999999</v>
+    <v>76577400000</v>
     <v>Compagnie Financiere Richemont SA</v>
     <v>Compagnie Financiere Richemont SA</v>
-    <v>150.5</v>
-    <v>59.192900000000002</v>
-    <v>150.35</v>
-    <v>150.75</v>
+    <v>146</v>
+    <v>58.8386</v>
+    <v>146.69999999999999</v>
+    <v>149.44999999999999</v>
     <v>522000000</v>
     <v>CFR</v>
     <v>Compagnie Financiere Richemont SA (XSWX:CFR)</v>
-    <v>802012</v>
-    <v>874440</v>
+    <v>1278266</v>
+    <v>823670</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2631,13 +2623,7 @@
       <x:numFmt numFmtId="2" formatCode="0.00"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="0" formatCode="General"/>
-    </x:dxf>
-    <x:dxf>
       <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
-    </x:dxf>
-    <x:dxf>
-      <x:numFmt numFmtId="14" formatCode="0.00%"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2648,30 +2634,36 @@
     <x:dxf>
       <x:numFmt numFmtId="1" formatCode="0"/>
     </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
   </dxfs>
   <richProperties>
     <rPr n="NumberFormat" t="s"/>
     <rPr n="IsTitleField" t="b"/>
   </richProperties>
   <richStyles>
-    <rSty dxfid="1">
+    <rSty dxfid="5">
       <rpv i="0" xml:space="preserve">_ * #,##0.00_) [$CHF-fr-CH]_ ;_ * (#,##0.00) [$CHF-fr-CH]_ ;_ * "-"??_) [$CHF-fr-CH]_ ;_ @_ </rpv>
     </rSty>
-    <rSty dxfid="5">
+    <rSty dxfid="3">
       <rpv i="0">#,##0.00</rpv>
     </rSty>
     <rSty>
       <rpv i="1">1</rpv>
     </rSty>
-    <rSty dxfid="4">
+    <rSty dxfid="2">
       <rpv i="0">#,##0</rpv>
     </rSty>
-    <rSty dxfid="3"/>
-    <rSty dxfid="1">
+    <rSty dxfid="6"/>
+    <rSty dxfid="5">
       <rpv i="0" xml:space="preserve">_ * #,##0_) [$CHF-fr-CH]_ ;_ * (#,##0) [$CHF-fr-CH]_ ;_ * "-"_) [$CHF-fr-CH]_ ;_ @_ </rpv>
     </rSty>
-    <rSty dxfid="2"/>
-    <rSty dxfid="6">
+    <rSty dxfid="1"/>
+    <rSty dxfid="4">
       <rpv i="0">0</rpv>
     </rSty>
     <rSty dxfid="0">
@@ -2981,10 +2973,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3273,7 +3265,7 @@
         <v>0.10133333333333328</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AC4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AA4" si="0">(F3/E3)-1</f>
         <v>0.15899919289749809</v>
       </c>
       <c r="G4" s="15">
@@ -3686,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:X9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:V9" si="1">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
@@ -4019,7 +4011,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15" t="e">
-        <f t="shared" ref="C13:X13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:V13" si="2">C12/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="15" t="e">
@@ -4336,15 +4328,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>4.1123611907616908</v>
+        <v>3.9923570199676766</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>38.032401157184182</v>
+        <v>36.922565091610416</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>20.96178580919479</v>
+        <v>20.350093010895563</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -4576,7 +4568,7 @@
         <v>1.1492007104795738</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:X20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:V20" si="3">(F19/E19)-1</f>
         <v>0.14628099173553721</v>
       </c>
       <c r="G20" s="15">
@@ -5206,7 +5198,7 @@
         <v>2.078125</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:X29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="4">(F28/E28)-1</f>
         <v>0.1106598984771574</v>
       </c>
       <c r="G29" s="15">
@@ -5624,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:X35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="5">(D34-C34)/C34</f>
         <v>-3.6398467432950193E-2</v>
       </c>
       <c r="E35" s="22">
@@ -8697,7 +8689,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:X80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:V80" si="6">B79/B3</f>
         <v>0</v>
       </c>
       <c r="C80" s="15">
@@ -8984,10 +8976,10 @@
       <c r="V83" s="1">
         <v>-420000000</v>
       </c>
-      <c r="AC83" s="33" t="s">
+      <c r="AC83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AD83" s="34"/>
+      <c r="AD83" s="62"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9056,10 +9048,10 @@
       <c r="V84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC84" s="35" t="s">
+      <c r="AC84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AD84" s="36"/>
+      <c r="AD84" s="64"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9353,10 +9345,10 @@
       <c r="V88" s="1">
         <v>-754000000</v>
       </c>
-      <c r="AC88" s="37" t="s">
+      <c r="AC88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AD88" s="38">
+      <c r="AD88" s="34">
         <f>AD85/(AD86+AD87)</f>
         <v>1.2892078681552366E-2</v>
       </c>
@@ -9366,7 +9358,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:X89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:V89" si="7">(-1*B88)/B3</f>
         <v>7.797927461139896E-2</v>
       </c>
       <c r="C89" s="15">
@@ -9599,10 +9591,10 @@
       <c r="V91" s="1">
         <v>-13698000000</v>
       </c>
-      <c r="AC91" s="37" t="s">
+      <c r="AC91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AD91" s="38">
+      <c r="AD91" s="34">
         <f>AD89/AD90</f>
         <v>0.19324796274738068</v>
       </c>
@@ -9674,10 +9666,10 @@
       <c r="V92" s="1">
         <v>12654000000</v>
       </c>
-      <c r="AC92" s="39" t="s">
+      <c r="AC92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AD92" s="40">
+      <c r="AD92" s="36">
         <f>AD88*(1-AD91)</f>
         <v>1.0400710740763434E-2</v>
       </c>
@@ -9749,10 +9741,10 @@
       <c r="V93" s="1">
         <v>-245000000</v>
       </c>
-      <c r="AC93" s="35" t="s">
+      <c r="AC93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AD93" s="36"/>
+      <c r="AD93" s="64"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9824,7 +9816,7 @@
       <c r="AC94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AD94" s="41">
+      <c r="AD94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -9898,9 +9890,9 @@
       <c r="AC95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AD95" s="42" cm="1">
+      <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5079</v>
+        <v>1.5125999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9973,7 +9965,7 @@
       <c r="AC96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AD96" s="41">
+      <c r="AD96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10044,12 +10036,12 @@
       <c r="V97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC97" s="39" t="s">
+      <c r="AC97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AD97" s="40">
+      <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.10586509500000001</v>
+        <v>0.10606743</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10119,10 +10111,10 @@
       <c r="V98" s="1">
         <v>-1041000000</v>
       </c>
-      <c r="AC98" s="35" t="s">
+      <c r="AC98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AD98" s="36"/>
+      <c r="AD98" s="64"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10266,12 +10258,12 @@
       <c r="V100" s="10">
         <v>-1767000000</v>
       </c>
-      <c r="AC100" s="37" t="s">
+      <c r="AC100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AD100" s="38">
+      <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>0.16020918328237188</v>
+        <v>0.16423393513152468</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10344,9 +10336,9 @@
       <c r="AC101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AD101" s="43" cm="1">
+      <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>78879200000</v>
+        <v>76577400000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10416,12 +10408,12 @@
       <c r="V102" s="10">
         <v>788000000</v>
       </c>
-      <c r="AC102" s="37" t="s">
+      <c r="AC102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AD102" s="38">
+      <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.83979081671762812</v>
+        <v>0.83576606486847538</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10491,12 +10483,12 @@
       <c r="V103" s="1">
         <v>3780000000</v>
       </c>
-      <c r="AC103" s="39" t="s">
+      <c r="AC103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AD103" s="44">
+      <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>93927200000</v>
+        <v>91625400000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10566,10 +10558,10 @@
       <c r="V104" s="11">
         <v>4568000000</v>
       </c>
-      <c r="AC104" s="35" t="s">
+      <c r="AC104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AD104" s="36"/>
+      <c r="AD104" s="64"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10597,7 +10589,7 @@
         <v>6.6761363636363535E-2</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:X105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:V105" si="8">(H106/G106)-1</f>
         <v>8.5219707057256899E-2</v>
       </c>
       <c r="I105" s="15">
@@ -10667,7 +10659,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.0570823965273203E-2</v>
+        <v>9.0355708234932774E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10737,33 +10729,33 @@
       <c r="V106" s="1">
         <v>3763000000</v>
       </c>
-      <c r="W106" s="45">
+      <c r="W106" s="41">
         <f>V106*(1+$AD$106)</f>
         <v>3954331249.239646</v>
       </c>
-      <c r="X106" s="45">
+      <c r="X106" s="41">
         <f t="shared" ref="X106:AA106" si="9">W106*(1+$AD$106)</f>
         <v>4155390812.8390059</v>
       </c>
-      <c r="Y106" s="45">
+      <c r="Y106" s="41">
         <f t="shared" si="9"/>
         <v>4366673330.8563948</v>
       </c>
-      <c r="Z106" s="45">
+      <c r="Z106" s="41">
         <f t="shared" si="9"/>
         <v>4588698593.5229368</v>
       </c>
-      <c r="AA106" s="45">
+      <c r="AA106" s="41">
         <f t="shared" si="9"/>
         <v>4822012820.0132236</v>
       </c>
-      <c r="AB106" s="46" t="s">
+      <c r="AB106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AC106" s="47" t="s">
+      <c r="AC106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AD106" s="48">
+      <c r="AD106" s="44">
         <f>(SUM(W4:AA4)/5)</f>
         <v>5.0845402402244444E-2</v>
       </c>
@@ -10791,151 +10783,151 @@
       <c r="T107" s="13"/>
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
-      <c r="W107" s="46"/>
-      <c r="X107" s="46"/>
-      <c r="Y107" s="46"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="49">
+      <c r="W107" s="42"/>
+      <c r="X107" s="42"/>
+      <c r="Y107" s="42"/>
+      <c r="Z107" s="42"/>
+      <c r="AA107" s="45">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>75377474944.209518</v>
-      </c>
-      <c r="AB107" s="50" t="s">
+        <v>75625576923.543182</v>
+      </c>
+      <c r="AB107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AC107" s="51" t="s">
+      <c r="AC107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AD107" s="52">
+      <c r="AD107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="49">
+      <c r="W108" s="45">
         <f t="shared" ref="W108:Y108" si="10">W107+W106</f>
         <v>3954331249.239646</v>
       </c>
-      <c r="X108" s="49">
+      <c r="X108" s="45">
         <f t="shared" si="10"/>
         <v>4155390812.8390059</v>
       </c>
-      <c r="Y108" s="49">
+      <c r="Y108" s="45">
         <f t="shared" si="10"/>
         <v>4366673330.8563948</v>
       </c>
-      <c r="Z108" s="49">
+      <c r="Z108" s="45">
         <f>Z107+Z106</f>
         <v>4588698593.5229368</v>
       </c>
-      <c r="AA108" s="49">
+      <c r="AA108" s="45">
         <f>AA107+AA106</f>
-        <v>80199487764.222748</v>
-      </c>
-      <c r="AB108" s="50" t="s">
+        <v>80447589743.556412</v>
+      </c>
+      <c r="AB108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AC108" s="53" t="s">
+      <c r="AC108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AD108" s="54">
+      <c r="AD108" s="50">
         <f>AD105</f>
-        <v>9.0570823965273203E-2</v>
+        <v>9.0355708234932774E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="55" t="s">
+      <c r="W109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="X109" s="56"/>
+      <c r="X109" s="60"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="57" t="s">
+      <c r="W110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="X110" s="43">
+      <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>65718200584.394432</v>
+        <v>65937138368.210136</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="57" t="s">
+      <c r="W111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="X111" s="43">
+      <c r="X111" s="39">
         <f>V40</f>
         <v>16509000000</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="57" t="s">
+      <c r="W112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="X112" s="43">
+      <c r="X112" s="39">
         <f>AD99</f>
         <v>15048000000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="57" t="s">
+      <c r="W113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="X113" s="43">
+      <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>67179200584.39444</v>
+        <v>67398138368.210144</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="57" t="s">
+      <c r="W114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="X114" s="58">
+      <c r="X114" s="52">
         <f>V34*(1+(5*AB16))</f>
         <v>583833553.24859488</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="59" t="s">
+      <c r="W115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="X115" s="60">
+      <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>115.06567275997189</v>
+        <v>115.44067310484326</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="57" t="s">
+      <c r="W116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="X116" s="61" cm="1">
+      <c r="X116" s="55" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>150.75</v>
+        <v>149.44999999999999</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="62" t="s">
+      <c r="W117" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="X117" s="63">
+      <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>-0.23671195515773202</v>
+        <v>-0.22756324453099186</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="62" t="s">
+      <c r="W118" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="X118" s="64" t="str">
+      <c r="X118" s="58" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="W109:X109"/>
     <mergeCell ref="AC83:AD83"/>
     <mergeCell ref="AC84:AD84"/>
     <mergeCell ref="AC93:AD93"/>
     <mergeCell ref="AC98:AD98"/>
     <mergeCell ref="AC104:AD104"/>
-    <mergeCell ref="W109:X109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CFR.SW" display="ROIC.AI | CFR.SW" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Richemont.xlsx
+++ b/Consumer/Richemont.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05FF296-1FC6-7E40-8BEF-0BE71D3FA607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38597A1D-9D4E-E742-9F3C-E159F0B83AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2376,36 +2376,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>152.55000000000001</v>
-    <v>90.28</v>
-    <v>1.5125999999999999</v>
-    <v>2.75</v>
-    <v>1.8745999999999999E-2</v>
+    <v>161.1</v>
+    <v>91.8</v>
+    <v>1.5235000000000001</v>
+    <v>-2.0499999999999998</v>
+    <v>-1.3833E-2</v>
     <v>CHF</v>
     <v>Compagnie Financiere Richemont SA (Richemont) is a Switzerland-based jewelry company. The Company's segments include Jewellery Maisons and Specialist Watchmakers. The Jewellery Maisons segment includes businesses, which are engaged in the design, manufacture and distribution of jewelry products. The businesses include Cartier, Van Cleef &amp; Arpels and Giampiero Bodino. Its Specialist Watchmakers segment includes businesses whose primary activity includes the design, manufacture and distribution of precision timepieces. The businesses in the Watchmakers segment include Piaget, A. Lange &amp; Sohne, Jaeger-LeCoultre, Vacheron Constantin, Officine Panerai, IWC Schaffhausen, Baume &amp; Mercier and Roger Dubuis. The Company's other operating segments include Montblanc, Alfred Dunhill, Chloe, Purdey, Shanghai Tang, Peter Millar, investment property companies and other manufacturing entities.</v>
-    <v>35853</v>
+    <v>33959</v>
     <v>SIX Swiss Exchange</v>
     <v>XSWX</v>
     <v>XSWX</v>
     <v>Chemin de la Chenaie 50, BELLEVUE, GENEVE, 1293 CH</v>
-    <v>149.44999999999999</v>
+    <v>147.30000000000001</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45057.809618055559</v>
+    <v>45100.652777777781</v>
     <v>0</v>
-    <v>145.94999999999999</v>
-    <v>76577400000</v>
+    <v>144.85</v>
+    <v>77319300000</v>
     <v>Compagnie Financiere Richemont SA</v>
     <v>Compagnie Financiere Richemont SA</v>
-    <v>146</v>
-    <v>58.8386</v>
-    <v>146.69999999999999</v>
-    <v>149.44999999999999</v>
+    <v>147.19999999999999</v>
+    <v>0</v>
+    <v>148.19999999999999</v>
+    <v>146.15</v>
     <v>522000000</v>
     <v>CFR</v>
     <v>Compagnie Financiere Richemont SA (XSWX:CFR)</v>
-    <v>1278266</v>
-    <v>823670</v>
+    <v>1091643</v>
+    <v>1420700</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2976,7 +2976,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
+      <selection pane="bottomRight" activeCell="T115" sqref="T115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4328,15 +4328,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>3.9923570199676766</v>
+        <v>4.0310359209634532</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>36.922565091610416</v>
+        <v>37.280279652844747</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>20.350093010895563</v>
+        <v>20.547249534945522</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.5125999999999999</v>
+        <v>1.5235000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.10606743</v>
+        <v>0.10653667500000001</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>0.16423393513152468</v>
+        <v>0.16291479776934045</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10338,7 +10338,7 @@
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>76577400000</v>
+        <v>77319300000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.83576606486847538</v>
+        <v>0.83708520223065952</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>91625400000</v>
+        <v>92367300000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.0355708234932774E-2</v>
+        <v>9.087470382434594E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10789,7 +10789,7 @@
       <c r="Z107" s="42"/>
       <c r="AA107" s="45">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>75625576923.543182</v>
+        <v>75029758823.551392</v>
       </c>
       <c r="AB107" s="46" t="s">
         <v>148</v>
@@ -10820,7 +10820,7 @@
       </c>
       <c r="AA108" s="45">
         <f>AA107+AA106</f>
-        <v>80447589743.556412</v>
+        <v>79851771643.564621</v>
       </c>
       <c r="AB108" s="46" t="s">
         <v>144</v>
@@ -10830,7 +10830,7 @@
       </c>
       <c r="AD108" s="50">
         <f>AD105</f>
-        <v>9.0355708234932774E-2</v>
+        <v>9.087470382434594E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>65937138368.210136</v>
+        <v>65411361696.492546</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>67398138368.210144</v>
+        <v>66872361696.492554</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>115.44067310484326</v>
+        <v>114.54011391499877</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="X116" s="55" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>149.44999999999999</v>
+        <v>146.15</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>-0.22756324453099186</v>
+        <v>-0.21628385963052499</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
